--- a/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,49 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>apart</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>paid</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>tried</t>
   </si>
   <si>
     <t>guess</t>
@@ -85,139 +91,157 @@
     <t>pay</t>
   </si>
   <si>
-    <t>tried</t>
+    <t>light</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>paid</t>
+    <t>half</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>way</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>like</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>much</t>
+    <t>really</t>
   </si>
   <si>
     <t>get</t>
@@ -226,9 +250,6 @@
     <t>bought</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -244,34 +265,34 @@
     <t>highly</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
     <t>expansion</t>
   </si>
   <si>
+    <t>elf</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>elf</t>
+    <t>love</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>lego</t>
   </si>
   <si>
     <t>great</t>
@@ -283,19 +304,19 @@
     <t>family</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>recommend</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>easy</t>
@@ -662,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.972972972972973</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>0.6615384615384615</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9577464788732394</v>
+        <v>0.9527027027027027</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K4">
-        <v>0.660377358490566</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9271844660194175</v>
+        <v>0.9368932038834952</v>
       </c>
       <c r="C5">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -849,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K5">
-        <v>0.5844155844155844</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9193548387096774</v>
+        <v>0.9154929577464789</v>
       </c>
       <c r="C6">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K6">
-        <v>0.5161290322580645</v>
+        <v>0.53125</v>
       </c>
       <c r="L6">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -923,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -931,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9142857142857143</v>
+        <v>0.8842105263157894</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>0.4893617021276596</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>0.4545454545454545</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8870967741935484</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>0.4375</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8842105263157894</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C10">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K10">
-        <v>0.4356846473029046</v>
+        <v>0.4375</v>
       </c>
       <c r="L10">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>272</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8695652173913043</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K11">
-        <v>0.4107142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1181,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.868421052631579</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K12">
-        <v>0.390625</v>
+        <v>0.3921161825726141</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>39</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.828125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>0.3730886850152905</v>
+        <v>0.3873744619799139</v>
       </c>
       <c r="L13">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="M13">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>205</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K14">
-        <v>0.3701578192252511</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="L14">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="M14">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>439</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7265625</v>
+        <v>0.7421875</v>
       </c>
       <c r="C15">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>0.3188405797101449</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>0.3095238095238095</v>
@@ -1431,7 +1452,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6825396825396826</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="C17">
         <v>43</v>
@@ -1449,31 +1470,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>0.303030303030303</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6721311475409836</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K18">
-        <v>0.2534818941504178</v>
+        <v>0.2200557103064067</v>
       </c>
       <c r="L18">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="M18">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1523,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6428571428571429</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K19">
-        <v>0.1707792207792208</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L19">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1570,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1277</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.631578947368421</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,31 +1620,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K20">
-        <v>0.1688311688311688</v>
+        <v>0.16590761223162</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>128</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5892857142857143</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,31 +1670,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>0.1491228070175439</v>
+        <v>0.1495162708883025</v>
       </c>
       <c r="L21">
         <v>170</v>
       </c>
       <c r="M21">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1702,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5876288659793815</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,31 +1720,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K22">
-        <v>0.1481481481481481</v>
+        <v>0.1013986013986014</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>161</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5783132530120482</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,31 +1770,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K23">
-        <v>0.1041666666666667</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>258</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1802,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5545023696682464</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C24">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,31 +1820,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K24">
-        <v>0.064343163538874</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
         <v>24</v>
       </c>
-      <c r="M24">
-        <v>25</v>
-      </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5454545454545454</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1852,28 +1873,28 @@
         <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K25">
-        <v>0.04</v>
+        <v>0.04959785522788204</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.524390243902439</v>
+        <v>0.5876777251184834</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,13 +1928,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4927536231884058</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1925,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1933,13 +1954,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4814814814814815</v>
+        <v>0.55</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1951,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1959,13 +1980,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.462962962962963</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1977,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1985,13 +2006,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4603174603174603</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2003,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2011,13 +2032,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4579710144927536</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C31">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2029,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>187</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2037,13 +2058,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4504950495049505</v>
+        <v>0.4579710144927536</v>
       </c>
       <c r="C32">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="D32">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2055,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2063,13 +2084,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.439873417721519</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="C33">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2081,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>177</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2089,13 +2110,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4310344827586207</v>
+        <v>0.4504950495049505</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2107,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2115,13 +2136,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4285714285714285</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2133,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2141,13 +2162,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.40625</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2159,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2167,13 +2188,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3648648648648649</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2185,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2193,13 +2214,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.319327731092437</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2211,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2219,13 +2240,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.305</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C39">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2237,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>139</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2245,13 +2266,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2644927536231884</v>
+        <v>0.375</v>
       </c>
       <c r="C40">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2263,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>203</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2271,13 +2292,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2573099415204678</v>
+        <v>0.305</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2289,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2297,13 +2318,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2468354430379747</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="C42">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2315,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2323,13 +2344,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2417582417582418</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2341,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2349,25 +2370,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1976225854383358</v>
+        <v>0.2781065088757396</v>
       </c>
       <c r="C44">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="D44">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="E44">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>540</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2375,13 +2396,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1967213114754098</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C45">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D45">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2393,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2401,13 +2422,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1960352422907489</v>
+        <v>0.2404371584699453</v>
       </c>
       <c r="C46">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2419,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>365</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2427,13 +2448,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.188034188034188</v>
+        <v>0.2341772151898734</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2445,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>95</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2453,13 +2474,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1875</v>
+        <v>0.2193877551020408</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2471,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>104</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2479,13 +2500,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1581632653061225</v>
+        <v>0.2070484581497797</v>
       </c>
       <c r="C49">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D49">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2497,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>165</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2505,25 +2526,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1494252873563219</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E50">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2531,13 +2552,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.140625</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2549,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2557,13 +2578,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.136986301369863</v>
+        <v>0.1875</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2575,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>315</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2583,13 +2604,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1329113924050633</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C53">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D53">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <v>0.02</v>
@@ -2601,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2609,25 +2630,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1267605633802817</v>
+        <v>0.1857355126300149</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="E54">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>186</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2635,25 +2656,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1202185792349727</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>161</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2661,25 +2682,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1095100864553314</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="C56">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>309</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2687,25 +2708,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1075268817204301</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D57">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E57">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>249</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2713,25 +2734,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.09174311926605505</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="C58">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>594</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2739,13 +2760,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08305647840531562</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2757,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>276</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2765,25 +2786,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.0821529745042493</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E60">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>324</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2791,25 +2812,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07459207459207459</v>
+        <v>0.116030534351145</v>
       </c>
       <c r="C61">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D61">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E61">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>397</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2817,25 +2838,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.07175925925925926</v>
+        <v>0.111913357400722</v>
       </c>
       <c r="C62">
         <v>31</v>
       </c>
       <c r="D62">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E62">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F62">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>401</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2843,25 +2864,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05607476635514019</v>
+        <v>0.1095100864553314</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E63">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F63">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>404</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2869,25 +2890,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04790419161676647</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E64">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>477</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2895,25 +2916,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04326123128119801</v>
+        <v>0.0951276102088167</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D65">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E65">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F65">
-        <v>0.79</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>575</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2921,25 +2942,207 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04060913705583756</v>
+        <v>0.08757062146892655</v>
       </c>
       <c r="C66">
+        <v>31</v>
+      </c>
+      <c r="D66">
         <v>32</v>
       </c>
-      <c r="D66">
-        <v>38</v>
-      </c>
       <c r="E66">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="F66">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>756</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="C67">
+        <v>26</v>
+      </c>
+      <c r="D67">
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <v>0.04</v>
+      </c>
+      <c r="F67">
+        <v>0.96</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.06965174129353234</v>
+      </c>
+      <c r="C68">
+        <v>42</v>
+      </c>
+      <c r="D68">
+        <v>47</v>
+      </c>
+      <c r="E68">
+        <v>0.11</v>
+      </c>
+      <c r="F68">
+        <v>0.89</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.06744186046511629</v>
+      </c>
+      <c r="C69">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>0.09</v>
+      </c>
+      <c r="F69">
+        <v>0.91</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.06196581196581197</v>
+      </c>
+      <c r="C70">
+        <v>29</v>
+      </c>
+      <c r="D70">
+        <v>30</v>
+      </c>
+      <c r="E70">
+        <v>0.03</v>
+      </c>
+      <c r="F70">
+        <v>0.97</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.0585480093676815</v>
+      </c>
+      <c r="C71">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>27</v>
+      </c>
+      <c r="E71">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F71">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.05566600397614314</v>
+      </c>
+      <c r="C72">
+        <v>28</v>
+      </c>
+      <c r="D72">
+        <v>29</v>
+      </c>
+      <c r="E72">
+        <v>0.03</v>
+      </c>
+      <c r="F72">
+        <v>0.97</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.04071246819338423</v>
+      </c>
+      <c r="C73">
+        <v>32</v>
+      </c>
+      <c r="D73">
+        <v>40</v>
+      </c>
+      <c r="E73">
+        <v>0.2</v>
+      </c>
+      <c r="F73">
+        <v>0.8</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
